--- a/noise_attack_results/AGNEWS_RoBERTa_clean_accuracy_results.xlsx
+++ b/noise_attack_results/AGNEWS_RoBERTa_clean_accuracy_results.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="45">
   <si>
     <t>noise_type\intensity</t>
   </si>
@@ -25,12 +25,15 @@
     <t>0.001</t>
   </si>
   <si>
-    <t>94.70%</t>
+    <t>95.03%</t>
   </si>
   <si>
     <t>0.0025</t>
   </si>
   <si>
+    <t>95.04%</t>
+  </si>
+  <si>
     <t>0.005</t>
   </si>
   <si>
@@ -40,112 +43,112 @@
     <t>0.025</t>
   </si>
   <si>
-    <t>94.71%</t>
+    <t>95.00%</t>
   </si>
   <si>
     <t>0.05</t>
   </si>
   <si>
-    <t>94.63%</t>
+    <t>95.02%</t>
   </si>
   <si>
     <t>0.1</t>
   </si>
   <si>
-    <t>94.65%</t>
+    <t>94.96%</t>
   </si>
   <si>
     <t>0.25</t>
   </si>
   <si>
-    <t>94.02%</t>
+    <t>94.54%</t>
   </si>
   <si>
     <t>0.5</t>
   </si>
   <si>
-    <t>81.61%</t>
+    <t>81.24%</t>
   </si>
   <si>
     <t>1</t>
   </si>
   <si>
-    <t>33.24%</t>
+    <t>36.82%</t>
   </si>
   <si>
     <t>pre_att_cls</t>
   </si>
   <si>
-    <t>94.69%</t>
+    <t>95.01%</t>
+  </si>
+  <si>
+    <t>94.92%</t>
+  </si>
+  <si>
+    <t>94.61%</t>
+  </si>
+  <si>
+    <t>90.77%</t>
+  </si>
+  <si>
+    <t>53.63%</t>
+  </si>
+  <si>
+    <t>pre_att_all</t>
+  </si>
+  <si>
+    <t>94.83%</t>
+  </si>
+  <si>
+    <t>89.40%</t>
+  </si>
+  <si>
+    <t>28.71%</t>
+  </si>
+  <si>
+    <t>25.24%</t>
+  </si>
+  <si>
+    <t>post_att_cls</t>
+  </si>
+  <si>
+    <t>95.05%</t>
+  </si>
+  <si>
+    <t>95.06%</t>
+  </si>
+  <si>
+    <t>94.99%</t>
+  </si>
+  <si>
+    <t>94.94%</t>
   </si>
   <si>
     <t>94.68%</t>
   </si>
   <si>
-    <t>94.61%</t>
-  </si>
-  <si>
-    <t>93.92%</t>
-  </si>
-  <si>
-    <t>68.95%</t>
-  </si>
-  <si>
-    <t>pre_att_all</t>
-  </si>
-  <si>
-    <t>94.67%</t>
-  </si>
-  <si>
-    <t>94.64%</t>
-  </si>
-  <si>
-    <t>94.60%</t>
-  </si>
-  <si>
-    <t>92.96%</t>
-  </si>
-  <si>
-    <t>50.85%</t>
-  </si>
-  <si>
-    <t>24.67%</t>
-  </si>
-  <si>
-    <t>post_att_cls</t>
-  </si>
-  <si>
-    <t>94.73%</t>
-  </si>
-  <si>
-    <t>94.42%</t>
+    <t>92.38%</t>
   </si>
   <si>
     <t>post_att_all</t>
   </si>
   <si>
-    <t>94.72%</t>
-  </si>
-  <si>
-    <t>94.46%</t>
-  </si>
-  <si>
-    <t>91.74%</t>
-  </si>
-  <si>
-    <t>25.52%</t>
+    <t>94.88%</t>
+  </si>
+  <si>
+    <t>94.36%</t>
+  </si>
+  <si>
+    <t>65.18%</t>
+  </si>
+  <si>
+    <t>24.88%</t>
   </si>
   <si>
     <t>last_cls</t>
   </si>
   <si>
     <t>logits</t>
-  </si>
-  <si>
-    <t>94.56%</t>
-  </si>
-  <si>
-    <t>94.34%</t>
   </si>
 </sst>
 </file>
@@ -501,28 +504,28 @@
         <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -533,241 +536,241 @@
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>21</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="G4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="F5" s="1" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>33</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
